--- a/pabi_account_report/xlsx_template/xlsx_report_gl_payable.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_gl_payable.xlsx
@@ -97,13 +97,13 @@
     <t xml:space="preserve">Header Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Document Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Journal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document number</t>
+    <t xml:space="preserve">Doc Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc Journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Number</t>
   </si>
   <si>
     <t xml:space="preserve">Item</t>
@@ -373,8 +373,8 @@
   </sheetPr>
   <dimension ref="A1:AX12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AN6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AV12" activeCellId="0" sqref="AV12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -404,11 +404,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="29.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="25.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="25.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="25.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="24.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="19.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="20.83"/>
@@ -416,13 +416,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="16.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="19.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="15.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="22.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="25.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="17.36"/>
